--- a/TestCase/NHOM6_TESTCASE - HOA.xlsx
+++ b/TestCase/NHOM6_TESTCASE - HOA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CDDD\Mobile-Themes-Group-6\TestCase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mobile-Themes-Group-6\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="208">
   <si>
     <t>#</t>
   </si>
@@ -1611,21 +1611,6 @@
 2. Input
 3. Clear all text has just been inputted
 4. Verify Hint text</t>
-  </si>
-  <si>
-    <t>viet thoem test</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>adad</t>
-  </si>
-  <si>
-    <t>ssc</t>
-  </si>
-  <si>
-    <t>xds</t>
   </si>
 </sst>
 </file>
@@ -1958,6 +1943,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1975,12 +1966,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2310,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A227" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I233" sqref="I233"/>
+    <sheetView tabSelected="1" topLeftCell="A217" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2370,38 +2355,38 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="A2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="32"/>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" ht="78.75" customHeight="1">
       <c r="A4" s="6"/>
@@ -3702,21 +3687,21 @@
       <c r="M45" s="6"/>
     </row>
     <row r="46" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A46" s="28" t="s">
+      <c r="A46" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="30"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="32"/>
     </row>
     <row r="47" spans="1:13" s="5" customFormat="1" ht="42.75">
       <c r="A47" s="6"/>
@@ -5048,21 +5033,21 @@
       <c r="M89" s="19"/>
     </row>
     <row r="90" spans="1:13" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="30"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="33"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="33"/>
+      <c r="I90" s="33"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="31"/>
+      <c r="L90" s="31"/>
+      <c r="M90" s="32"/>
     </row>
     <row r="91" spans="1:13" s="5" customFormat="1" ht="42.75">
       <c r="A91" s="6"/>
@@ -7200,21 +7185,21 @@
       <c r="M159" s="19"/>
     </row>
     <row r="160" spans="1:13" s="5" customFormat="1" ht="30" customHeight="1">
-      <c r="A160" s="28" t="s">
+      <c r="A160" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="B160" s="29"/>
-      <c r="C160" s="29"/>
-      <c r="D160" s="29"/>
-      <c r="E160" s="29"/>
-      <c r="F160" s="29"/>
-      <c r="G160" s="29"/>
-      <c r="H160" s="29"/>
-      <c r="I160" s="29"/>
-      <c r="J160" s="32"/>
-      <c r="K160" s="29"/>
-      <c r="L160" s="29"/>
-      <c r="M160" s="30"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="31"/>
+      <c r="D160" s="31"/>
+      <c r="E160" s="31"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="31"/>
+      <c r="I160" s="31"/>
+      <c r="J160" s="34"/>
+      <c r="K160" s="31"/>
+      <c r="L160" s="31"/>
+      <c r="M160" s="32"/>
     </row>
     <row r="161" spans="1:13" s="5" customFormat="1" ht="42.75">
       <c r="A161" s="6"/>
@@ -9383,27 +9368,17 @@
       <c r="M230" s="19"/>
     </row>
     <row r="231" spans="1:13">
-      <c r="D231" s="33" t="s">
-        <v>208</v>
-      </c>
+      <c r="D231" s="27"/>
     </row>
     <row r="232" spans="1:13">
-      <c r="D232" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="H232" s="34" t="s">
-        <v>211</v>
-      </c>
+      <c r="D232" s="27"/>
+      <c r="H232" s="28"/>
     </row>
     <row r="233" spans="1:13">
-      <c r="D233" s="33" t="s">
-        <v>210</v>
-      </c>
+      <c r="D233" s="27"/>
     </row>
     <row r="234" spans="1:13">
-      <c r="H234" s="34" t="s">
-        <v>212</v>
-      </c>
+      <c r="H234" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
